--- a/data/trans_bre/P23_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>62,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>108,03%</t>
+          <t>80,61%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,41%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-58,54%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 12,12</t>
+          <t>-10,3; 16,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 12,61</t>
+          <t>-8,17; 12,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 8,32</t>
+          <t>-14,56; 12,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 490,37</t>
+          <t>-17,95; 4,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-78,55; —</t>
+          <t>-82,95; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>-18,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,31%</t>
+          <t>122,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>-52,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-19,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>109,92%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 12,15</t>
+          <t>-2,87; 21,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 6,65</t>
+          <t>-50,45; 4,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 15,25</t>
+          <t>-38,69; 12,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,54; 221,97</t>
+          <t>-4,02; 23,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,96; 63,34</t>
+          <t>-32,94; 982,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 324,98</t>
+          <t>-83,03; 61,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-95,17; 583,79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-68,41; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-32,23%</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>125,25%</t>
+          <t>-28,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>59,78%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-34,19%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-45,65%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 4,44</t>
+          <t>-17,55; 6,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 18,58</t>
+          <t>-4,34; 19,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 9,81</t>
+          <t>-23,28; 4,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-76,24; 47,41</t>
+          <t>-17,68; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 382,64</t>
+          <t>-64,88; 67,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 121,65</t>
+          <t>-23,95; 280,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-66,17; 30,89</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-79,4; 57,83</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37,07%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>98,34%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 12,81</t>
+          <t>-5,47; 13,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 11,15</t>
+          <t>-6,36; 17,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 9,69</t>
+          <t>-5,56; 15,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 191,07</t>
+          <t>-2,24; 16,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 103,33</t>
+          <t>-35,6; 231,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,82; 79,35</t>
+          <t>-28,65; 167,88</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,79; 166,77</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-31,77; 580,79</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-15,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-30,5%</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>-55,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-36,16%</t>
+          <t>-9,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-71,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-21,87%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 4,28</t>
+          <t>-21,27; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 11,49</t>
+          <t>-16,38; 12,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 3,61</t>
+          <t>-31,46; -2,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 40,02</t>
+          <t>-21,47; 10,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 112,34</t>
+          <t>-87,33; 41,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,59; 35,49</t>
+          <t>-69,12; 110,11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-94,99; -1,36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-83,82; 139,86</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>106,21%</t>
+          <t>12,26</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>229,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>-8,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-23,35%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>156,7%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 19,56</t>
+          <t>-0,64; 25,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 13,11</t>
+          <t>-18,03; 13,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 12,72</t>
+          <t>-19,98; 11,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 620,13</t>
+          <t>-2,13; 28,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 124,98</t>
+          <t>-54,98; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,76; 130,69</t>
+          <t>-75,84; 231,74</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-76,41; 144,19</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-35,08; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-17,95%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 4,42</t>
+          <t>-2,77; 7,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,84</t>
+          <t>-10,55; 5,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,53</t>
+          <t>-10,79; 2,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 42,35</t>
+          <t>-2,36; 7,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 61,95</t>
+          <t>-18,99; 73,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 53,41</t>
+          <t>-40,6; 40,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-48,36; 23,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 114,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>62,79%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>80,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>46,41%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-58,54%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.526676017050661</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.912403296163982</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.872349718511199</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.913941182768168</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8363217905917587</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4690304565846996</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.393292374794504</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5950288404327522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,3; 16,86</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 12,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,56; 12,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,95; 4,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-82,95; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.29204122889721</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.33120333469266</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.85315285294588</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.57537940065173</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.8518299300673282</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.71939767326142</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.49848317749024</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.76522416291796</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.990303112659473</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,38</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-18,95</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>122,67%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-52,71%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-19,65%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>109,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 21,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-50,45; 4,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-38,69; 12,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 23,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-32,94; 982,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-83,03; 61,41</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-95,17; 583,79</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-68,41; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.840291364254213</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-16.84187492418794</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.799974258050536</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.029250721202624</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2156817916565587</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.5071077137931215</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1837447535678319</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.088663992192248</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,51</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-28,52%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>59,78%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-34,19%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-45,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-16.66458676114026</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-45.29799619088193</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-39.27859840402631</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.873951345106822</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.658047811842647</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.826638207026321</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.9531212436955694</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7062972444383158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,55; 6,99</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 19,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,28; 4,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,68; 3,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-64,88; 67,59</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-23,95; 280,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-66,17; 30,89</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-79,4; 57,83</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.73774871191079</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.647040734056808</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.49947431386091</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>23.82970087189441</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.895296558079372</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5564924528237974</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.443624179292061</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +811,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,18</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>35,21%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,93%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>37,07%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>98,34%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.755570139815242</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.369719951898524</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.407726256558572</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.64638833165196</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2813871141844858</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.6028292060286395</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.363946458389156</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4514458345723441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 13,73</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 17,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 15,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 16,78</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-35,6; 231,59</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-28,65; 167,88</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-29,79; 166,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-31,77; 580,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.98543509172176</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.715811183420366</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.55337363125554</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.00266017498565</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6585079607876301</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2671411633482503</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6728815504422576</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7879456915521846</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.074301678401499</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.24188099320524</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.574853466029969</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.128462985600261</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.854876330888023</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.621348430154288</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2515642306557793</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6046955449782512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-10,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-15,94</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,37</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-55,89%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-9,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-71,5%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-21,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-21,27; 3,45</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,38; 12,33</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-31,46; -2,9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-21,47; 10,44</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-87,33; 41,33</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-69,12; 110,11</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-94,99; -1,36</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-83,82; 139,86</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.306882376444843</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.176231565023697</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.932454546539121</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.670500842742584</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5113102328545672</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.4461718852798842</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4430532448750558</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.221232858838259</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,17</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,26</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>229,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-8,52%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-23,35%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>156,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.533475301653392</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.926182714216583</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.16337185268508</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.234571623804185</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2749412641393643</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2213738504561063</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2757332704992442</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2277388240038799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 25,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,03; 13,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-19,98; 11,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 28,03</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-54,98; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-75,84; 231,74</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-76,41; 144,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-35,08; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.71659966068292</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.45653977431419</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.7335342684402</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.40283294096191</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.709241084954579</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.884687663943307</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.85142183954319</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>7.011571196778005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1011,293 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-4,27%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-17,95%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>29,03%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-10.33512621680449</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-3.356055297086797</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-16.81931027199937</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-3.607041256655011</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.5595926648898146</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.1722811377183045</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.7439533963204471</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.2361722297449855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 7,35</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 5,32</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,79; 2,85</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 7,54</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-18,99; 73,78</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-40,6; 40,36</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-48,36; 23,36</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-21,81; 114,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-20.46849972586842</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-18.78059472965479</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-33.89598843913021</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-22.3542337342063</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.8777192720118369</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.7115787166346172</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.8528041509130695</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.197476842790815</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.78636864014745</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-4.124126474849776</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>9.966593579307766</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.3754069814718963</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.9173477552976254</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>-0.110159346491751</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.329753411901978</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>11.54298778412115</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-1.121047768622874</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-5.270588760887658</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>13.27295973165375</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>2.596693201223241</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.08123471070299348</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.3043620315547467</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.753658455626514</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.1186617254188015</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-17.18114918448066</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-20.52849850332134</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-1.046119454364709</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.4972869601764788</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.7623165705039061</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.7931746197199279</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.3297099419053616</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>26.40089407853177</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>13.06761587337167</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>9.261829597583608</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>30.75990560291996</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>2.432168822014544</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1.1545775616528</v>
+      </c>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.572463367235419</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.06500316426284181</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.277161703690298</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.807772304839723</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1157755692190005</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.003727245187283324</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.1990335964684839</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.3154678099655014</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.010069283000596</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.08817986428628</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.7952696762526</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.964027800413647</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2465630918760305</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3487712868125409</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.4958680713493955</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.1996305190054964</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.342297244035236</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.94476037808999</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.50109049500275</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.884336224674997</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.676054813233546</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.4418194121028148</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.1960623762230668</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.174814024418447</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1305,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
